--- a/график.xlsx
+++ b/график.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +742,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>39</v>
@@ -838,7 +838,7 @@
         <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="7"/>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="1" t="s">
@@ -1091,7 +1091,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="1" t="s">

--- a/график.xlsx
+++ b/график.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -254,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -325,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -335,6 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -641,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,4 +1219,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B1" s="9">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>SUM(B1:B15)</f>
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D1:D15)</f>
+        <v>95</v>
+      </c>
+      <c r="F16" s="10">
+        <f>D16*0.06</f>
+        <v>5.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>